--- a/Conversion_from_v4/relationship.xlsx
+++ b/Conversion_from_v4/relationship.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$267</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="533">
   <si>
     <t>Has precise ingredient (RxNorm)</t>
   </si>
@@ -1110,9 +1110,6 @@
     <t>Specimen subst of</t>
   </si>
   <si>
-    <t>subst used by</t>
-  </si>
-  <si>
     <t>Has indir morph</t>
   </si>
   <si>
@@ -1605,6 +1602,12 @@
     <t>RxNorm - Multilex eq</t>
   </si>
   <si>
+    <t>reverse_relationship</t>
+  </si>
+  <si>
+    <t>Subst used by</t>
+  </si>
+  <si>
     <t>relationship_name</t>
   </si>
   <si>
@@ -1612,9 +1615,6 @@
   </si>
   <si>
     <t>defines_ancestry</t>
-  </si>
-  <si>
-    <t>reverse_relationship</t>
   </si>
   <si>
     <t>relationship_concept_id</t>
@@ -1959,41 +1959,42 @@
   <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="99" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2001,8 +2002,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>135</v>
+      <c r="E2" t="s">
+        <v>490</v>
       </c>
       <c r="F2">
         <v>44818714</v>
@@ -2021,8 +2022,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>136</v>
+      <c r="E3" t="s">
+        <v>330</v>
       </c>
       <c r="F3">
         <v>44818715</v>
@@ -2041,8 +2042,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>137</v>
+      <c r="E4" t="s">
+        <v>257</v>
       </c>
       <c r="F4">
         <v>44818716</v>
@@ -2050,7 +2051,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2061,8 +2062,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>138</v>
+      <c r="E5" t="s">
+        <v>515</v>
       </c>
       <c r="F5">
         <v>44818717</v>
@@ -2081,8 +2082,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>139</v>
+      <c r="E6" t="s">
+        <v>259</v>
       </c>
       <c r="F6">
         <v>44818718</v>
@@ -2090,7 +2091,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2101,8 +2102,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>140</v>
+      <c r="E7" t="s">
+        <v>513</v>
       </c>
       <c r="F7">
         <v>44818719</v>
@@ -2121,8 +2122,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>141</v>
+      <c r="E8" t="s">
+        <v>260</v>
       </c>
       <c r="F8">
         <v>44818720</v>
@@ -2141,8 +2142,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>142</v>
+      <c r="E9" t="s">
+        <v>472</v>
       </c>
       <c r="F9">
         <v>44818721</v>
@@ -2161,8 +2162,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>143</v>
+      <c r="E10" t="s">
+        <v>261</v>
       </c>
       <c r="F10">
         <v>44818722</v>
@@ -2181,8 +2182,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>144</v>
+      <c r="E11" t="s">
+        <v>104</v>
       </c>
       <c r="F11">
         <v>44818723</v>
@@ -2190,7 +2191,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2201,8 +2202,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>145</v>
+      <c r="E12" t="s">
+        <v>516</v>
       </c>
       <c r="F12">
         <v>44818724</v>
@@ -2221,8 +2222,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>146</v>
+      <c r="E13" t="s">
+        <v>322</v>
       </c>
       <c r="F13">
         <v>44818725</v>
@@ -2241,8 +2242,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>147</v>
+      <c r="E14" t="s">
+        <v>323</v>
       </c>
       <c r="F14">
         <v>44818726</v>
@@ -2261,8 +2262,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>148</v>
+      <c r="E15" t="s">
+        <v>396</v>
       </c>
       <c r="F15">
         <v>44818727</v>
@@ -2281,8 +2282,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>149</v>
+      <c r="E16" t="s">
+        <v>397</v>
       </c>
       <c r="F16">
         <v>44818728</v>
@@ -2290,7 +2291,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -2301,8 +2302,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>150</v>
+      <c r="E17" t="s">
+        <v>514</v>
       </c>
       <c r="F17">
         <v>44818729</v>
@@ -2321,8 +2322,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>151</v>
+      <c r="E18" t="s">
+        <v>338</v>
       </c>
       <c r="F18">
         <v>44818730</v>
@@ -2341,8 +2342,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>152</v>
+      <c r="E19" t="s">
+        <v>333</v>
       </c>
       <c r="F19">
         <v>44818731</v>
@@ -2361,8 +2362,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>153</v>
+      <c r="E20" t="s">
+        <v>339</v>
       </c>
       <c r="F20">
         <v>44818732</v>
@@ -2370,7 +2371,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -2381,8 +2382,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>154</v>
+      <c r="E21" t="s">
+        <v>398</v>
       </c>
       <c r="F21">
         <v>44818733</v>
@@ -2401,8 +2402,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>155</v>
+      <c r="E22" t="s">
+        <v>324</v>
       </c>
       <c r="F22">
         <v>44818734</v>
@@ -2421,8 +2422,8 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>156</v>
+      <c r="E23" t="s">
+        <v>400</v>
       </c>
       <c r="F23">
         <v>44818735</v>
@@ -2441,8 +2442,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>157</v>
+      <c r="E24" t="s">
+        <v>325</v>
       </c>
       <c r="F24">
         <v>44818736</v>
@@ -2461,8 +2462,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>158</v>
+      <c r="E25" t="s">
+        <v>402</v>
       </c>
       <c r="F25">
         <v>44818737</v>
@@ -2481,8 +2482,8 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
-        <v>159</v>
+      <c r="E26" t="s">
+        <v>401</v>
       </c>
       <c r="F26">
         <v>44818738</v>
@@ -2501,8 +2502,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>160</v>
+      <c r="E27" t="s">
+        <v>326</v>
       </c>
       <c r="F27">
         <v>44818739</v>
@@ -2521,8 +2522,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>161</v>
+      <c r="E28" t="s">
+        <v>403</v>
       </c>
       <c r="F28">
         <v>44818740</v>
@@ -2530,7 +2531,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2541,8 +2542,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>162</v>
+      <c r="E29" t="s">
+        <v>384</v>
       </c>
       <c r="F29">
         <v>44818741</v>
@@ -2550,7 +2551,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -2561,8 +2562,8 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>163</v>
+      <c r="E30" t="s">
+        <v>390</v>
       </c>
       <c r="F30">
         <v>44818742</v>
@@ -2581,8 +2582,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31">
-        <v>164</v>
+      <c r="E31" t="s">
+        <v>404</v>
       </c>
       <c r="F31">
         <v>44818743</v>
@@ -2601,8 +2602,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32">
-        <v>165</v>
+      <c r="E32" t="s">
+        <v>291</v>
       </c>
       <c r="F32">
         <v>44818744</v>
@@ -2621,8 +2622,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>166</v>
+      <c r="E33" t="s">
+        <v>405</v>
       </c>
       <c r="F33">
         <v>44818745</v>
@@ -2641,8 +2642,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
-        <v>167</v>
+      <c r="E34" t="s">
+        <v>292</v>
       </c>
       <c r="F34">
         <v>44818746</v>
@@ -2661,8 +2662,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>168</v>
+      <c r="E35" t="s">
+        <v>293</v>
       </c>
       <c r="F35">
         <v>44818747</v>
@@ -2681,8 +2682,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
-        <v>169</v>
+      <c r="E36" t="s">
+        <v>294</v>
       </c>
       <c r="F36">
         <v>44818748</v>
@@ -2701,8 +2702,8 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>170</v>
+      <c r="E37" t="s">
+        <v>295</v>
       </c>
       <c r="F37">
         <v>44818749</v>
@@ -2721,8 +2722,8 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
-        <v>171</v>
+      <c r="E38" t="s">
+        <v>296</v>
       </c>
       <c r="F38">
         <v>44818750</v>
@@ -2741,8 +2742,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>172</v>
+      <c r="E39" t="s">
+        <v>297</v>
       </c>
       <c r="F39">
         <v>44818751</v>
@@ -2761,8 +2762,8 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
-        <v>173</v>
+      <c r="E40" t="s">
+        <v>298</v>
       </c>
       <c r="F40">
         <v>44818752</v>
@@ -2781,8 +2782,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>174</v>
+      <c r="E41" t="s">
+        <v>299</v>
       </c>
       <c r="F41">
         <v>44818753</v>
@@ -2790,7 +2791,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -2801,8 +2802,8 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>175</v>
+      <c r="E42" t="s">
+        <v>406</v>
       </c>
       <c r="F42">
         <v>44818754</v>
@@ -2810,7 +2811,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2821,8 +2822,8 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43">
-        <v>176</v>
+      <c r="E43" t="s">
+        <v>407</v>
       </c>
       <c r="F43">
         <v>44818755</v>
@@ -2841,8 +2842,8 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44">
-        <v>177</v>
+      <c r="E44" t="s">
+        <v>300</v>
       </c>
       <c r="F44">
         <v>44818756</v>
@@ -2861,8 +2862,8 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>178</v>
+      <c r="E45" t="s">
+        <v>301</v>
       </c>
       <c r="F45">
         <v>44818757</v>
@@ -2881,8 +2882,8 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>179</v>
+      <c r="E46" t="s">
+        <v>302</v>
       </c>
       <c r="F46">
         <v>44818758</v>
@@ -2901,8 +2902,8 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>180</v>
+      <c r="E47" t="s">
+        <v>303</v>
       </c>
       <c r="F47">
         <v>44818759</v>
@@ -2921,8 +2922,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>181</v>
+      <c r="E48" t="s">
+        <v>346</v>
       </c>
       <c r="F48">
         <v>44818760</v>
@@ -2941,8 +2942,8 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>182</v>
+      <c r="E49" t="s">
+        <v>331</v>
       </c>
       <c r="F49">
         <v>44818761</v>
@@ -2961,8 +2962,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>183</v>
+      <c r="E50" t="s">
+        <v>304</v>
       </c>
       <c r="F50">
         <v>44818762</v>
@@ -2981,8 +2982,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>184</v>
+      <c r="E51" t="s">
+        <v>305</v>
       </c>
       <c r="F51">
         <v>44818763</v>
@@ -2990,7 +2991,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -3001,8 +3002,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
-        <v>185</v>
+      <c r="E52" t="s">
+        <v>408</v>
       </c>
       <c r="F52">
         <v>44818764</v>
@@ -3010,7 +3011,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -3021,8 +3022,8 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>186</v>
+      <c r="E53" t="s">
+        <v>409</v>
       </c>
       <c r="F53">
         <v>44818765</v>
@@ -3030,7 +3031,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -3041,8 +3042,8 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54">
-        <v>187</v>
+      <c r="E54" t="s">
+        <v>410</v>
       </c>
       <c r="F54">
         <v>44818766</v>
@@ -3061,8 +3062,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>188</v>
+      <c r="E55" t="s">
+        <v>306</v>
       </c>
       <c r="F55">
         <v>44818767</v>
@@ -3081,8 +3082,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
-        <v>189</v>
+      <c r="E56" t="s">
+        <v>307</v>
       </c>
       <c r="F56">
         <v>44818768</v>
@@ -3101,8 +3102,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>190</v>
+      <c r="E57" t="s">
+        <v>411</v>
       </c>
       <c r="F57">
         <v>44818769</v>
@@ -3121,8 +3122,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
-        <v>191</v>
+      <c r="E58" t="s">
+        <v>412</v>
       </c>
       <c r="F58">
         <v>44818770</v>
@@ -3141,8 +3142,8 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59">
-        <v>192</v>
+      <c r="E59" t="s">
+        <v>413</v>
       </c>
       <c r="F59">
         <v>44818771</v>
@@ -3161,8 +3162,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
-        <v>193</v>
+      <c r="E60" t="s">
+        <v>308</v>
       </c>
       <c r="F60">
         <v>44818772</v>
@@ -3181,8 +3182,8 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61">
-        <v>194</v>
+      <c r="E61" t="s">
+        <v>309</v>
       </c>
       <c r="F61">
         <v>44818773</v>
@@ -3201,8 +3202,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62">
-        <v>195</v>
+      <c r="E62" t="s">
+        <v>310</v>
       </c>
       <c r="F62">
         <v>44818774</v>
@@ -3221,8 +3222,8 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63">
-        <v>196</v>
+      <c r="E63" t="s">
+        <v>356</v>
       </c>
       <c r="F63">
         <v>44818775</v>
@@ -3241,8 +3242,8 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
-        <v>197</v>
+      <c r="E64" t="s">
+        <v>414</v>
       </c>
       <c r="F64">
         <v>44818776</v>
@@ -3261,8 +3262,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65">
-        <v>198</v>
+      <c r="E65" t="s">
+        <v>415</v>
       </c>
       <c r="F65">
         <v>44818777</v>
@@ -3281,8 +3282,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66">
-        <v>199</v>
+      <c r="E66" t="s">
+        <v>416</v>
       </c>
       <c r="F66">
         <v>44818778</v>
@@ -3301,8 +3302,8 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67">
-        <v>200</v>
+      <c r="E67" t="s">
+        <v>362</v>
       </c>
       <c r="F67">
         <v>44818779</v>
@@ -3321,8 +3322,8 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68">
-        <v>201</v>
+      <c r="E68" t="s">
+        <v>311</v>
       </c>
       <c r="F68">
         <v>44818780</v>
@@ -3330,19 +3331,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>488</v>
+      </c>
+      <c r="B69" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
         <v>489</v>
-      </c>
-      <c r="B69" t="s">
-        <v>464</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>202</v>
       </c>
       <c r="F69">
         <v>44818781</v>
@@ -3361,8 +3362,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70">
-        <v>203</v>
+      <c r="E70" t="s">
+        <v>258</v>
       </c>
       <c r="F70">
         <v>44818782</v>
@@ -3381,8 +3382,8 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71">
-        <v>204</v>
+      <c r="E71" t="s">
+        <v>312</v>
       </c>
       <c r="F71">
         <v>44818783</v>
@@ -3401,8 +3402,8 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72">
-        <v>205</v>
+      <c r="E72" t="s">
+        <v>417</v>
       </c>
       <c r="F72">
         <v>44818784</v>
@@ -3410,7 +3411,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
@@ -3421,8 +3422,8 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>206</v>
+      <c r="E73" t="s">
+        <v>418</v>
       </c>
       <c r="F73">
         <v>44818785</v>
@@ -3430,7 +3431,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" t="s">
         <v>70</v>
@@ -3441,8 +3442,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74">
-        <v>207</v>
+      <c r="E74" t="s">
+        <v>419</v>
       </c>
       <c r="F74">
         <v>44818786</v>
@@ -3461,8 +3462,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75">
-        <v>208</v>
+      <c r="E75" t="s">
+        <v>420</v>
       </c>
       <c r="F75">
         <v>44818787</v>
@@ -3481,8 +3482,8 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76">
-        <v>209</v>
+      <c r="E76" t="s">
+        <v>421</v>
       </c>
       <c r="F76">
         <v>44818788</v>
@@ -3501,8 +3502,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77">
-        <v>210</v>
+      <c r="E77" t="s">
+        <v>313</v>
       </c>
       <c r="F77">
         <v>44818789</v>
@@ -3521,8 +3522,8 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78">
-        <v>211</v>
+      <c r="E78" t="s">
+        <v>422</v>
       </c>
       <c r="F78">
         <v>44818790</v>
@@ -3541,8 +3542,8 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79">
-        <v>212</v>
+      <c r="E79" t="s">
+        <v>314</v>
       </c>
       <c r="F79">
         <v>44818791</v>
@@ -3550,7 +3551,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
@@ -3561,8 +3562,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80">
-        <v>213</v>
+      <c r="E80" t="s">
+        <v>510</v>
       </c>
       <c r="F80">
         <v>44818792</v>
@@ -3570,7 +3571,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -3581,8 +3582,8 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81">
-        <v>214</v>
+      <c r="E81" t="s">
+        <v>371</v>
       </c>
       <c r="F81">
         <v>44818793</v>
@@ -3601,8 +3602,8 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82">
-        <v>215</v>
+      <c r="E82" t="s">
+        <v>315</v>
       </c>
       <c r="F82">
         <v>44818794</v>
@@ -3621,8 +3622,8 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83">
-        <v>216</v>
+      <c r="E83" t="s">
+        <v>316</v>
       </c>
       <c r="F83">
         <v>44818795</v>
@@ -3641,8 +3642,8 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>217</v>
+      <c r="E84" t="s">
+        <v>528</v>
       </c>
       <c r="F84">
         <v>44818796</v>
@@ -3650,7 +3651,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
@@ -3661,8 +3662,8 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85">
-        <v>218</v>
+      <c r="E85" t="s">
+        <v>511</v>
       </c>
       <c r="F85">
         <v>44818797</v>
@@ -3681,8 +3682,8 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86">
-        <v>219</v>
+      <c r="E86" t="s">
+        <v>493</v>
       </c>
       <c r="F86">
         <v>44818798</v>
@@ -3690,7 +3691,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
@@ -3701,8 +3702,8 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87">
-        <v>220</v>
+      <c r="E87" t="s">
+        <v>373</v>
       </c>
       <c r="F87">
         <v>44818799</v>
@@ -3721,8 +3722,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
-        <v>221</v>
+      <c r="E88" t="s">
+        <v>317</v>
       </c>
       <c r="F88">
         <v>44818800</v>
@@ -3730,7 +3731,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B89" t="s">
         <v>85</v>
@@ -3741,8 +3742,8 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89">
-        <v>222</v>
+      <c r="E89" t="s">
+        <v>375</v>
       </c>
       <c r="F89">
         <v>44818801</v>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B90" t="s">
         <v>86</v>
@@ -3761,8 +3762,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>226</v>
+      <c r="E90" t="s">
+        <v>385</v>
       </c>
       <c r="F90">
         <v>44818802</v>
@@ -3770,7 +3771,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
@@ -3781,8 +3782,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>227</v>
+      <c r="E91" t="s">
+        <v>391</v>
       </c>
       <c r="F91">
         <v>44818803</v>
@@ -3790,7 +3791,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
@@ -3801,8 +3802,8 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92">
-        <v>228</v>
+      <c r="E92" t="s">
+        <v>386</v>
       </c>
       <c r="F92">
         <v>44818804</v>
@@ -3810,7 +3811,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B93" t="s">
         <v>89</v>
@@ -3821,8 +3822,8 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93">
-        <v>239</v>
+      <c r="E93" t="s">
+        <v>387</v>
       </c>
       <c r="F93">
         <v>44818805</v>
@@ -3830,7 +3831,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
@@ -3841,8 +3842,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94">
-        <v>240</v>
+      <c r="E94" t="s">
+        <v>424</v>
       </c>
       <c r="F94">
         <v>44818806</v>
@@ -3850,7 +3851,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
         <v>91</v>
@@ -3861,8 +3862,8 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95">
-        <v>241</v>
+      <c r="E95" t="s">
+        <v>393</v>
       </c>
       <c r="F95">
         <v>44818807</v>
@@ -3870,7 +3871,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
         <v>92</v>
@@ -3881,8 +3882,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96">
-        <v>243</v>
+      <c r="E96" t="s">
+        <v>394</v>
       </c>
       <c r="F96">
         <v>44818808</v>
@@ -3890,7 +3891,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B97" t="s">
         <v>93</v>
@@ -3901,8 +3902,8 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97">
-        <v>244</v>
+      <c r="E97" t="s">
+        <v>378</v>
       </c>
       <c r="F97">
         <v>44818809</v>
@@ -3910,7 +3911,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B98" t="s">
         <v>94</v>
@@ -3921,8 +3922,8 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98">
-        <v>245</v>
+      <c r="E98" t="s">
+        <v>379</v>
       </c>
       <c r="F98">
         <v>44818810</v>
@@ -3930,7 +3931,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B99" t="s">
         <v>95</v>
@@ -3941,8 +3942,8 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99">
-        <v>246</v>
+      <c r="E99" t="s">
+        <v>425</v>
       </c>
       <c r="F99">
         <v>44818811</v>
@@ -3950,19 +3951,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>490</v>
+      </c>
+      <c r="B100" t="s">
+        <v>464</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
         <v>491</v>
-      </c>
-      <c r="B100" t="s">
-        <v>465</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
       </c>
       <c r="F100">
         <v>44818812</v>
@@ -3981,8 +3982,8 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101">
-        <v>2</v>
+      <c r="E101" t="s">
+        <v>327</v>
       </c>
       <c r="F101">
         <v>44818813</v>
@@ -4001,8 +4002,8 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102">
-        <v>3</v>
+      <c r="E102" t="s">
+        <v>251</v>
       </c>
       <c r="F102">
         <v>44818814</v>
@@ -4010,7 +4011,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B103" t="s">
         <v>98</v>
@@ -4021,8 +4022,8 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103">
-        <v>4</v>
+      <c r="E103" t="s">
+        <v>517</v>
       </c>
       <c r="F103">
         <v>44818815</v>
@@ -4041,8 +4042,8 @@
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="E104">
-        <v>5</v>
+      <c r="E104" t="s">
+        <v>253</v>
       </c>
       <c r="F104">
         <v>44818816</v>
@@ -4050,7 +4051,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B105" t="s">
         <v>100</v>
@@ -4061,8 +4062,8 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105">
-        <v>6</v>
+      <c r="E105" t="s">
+        <v>519</v>
       </c>
       <c r="F105">
         <v>44818817</v>
@@ -4081,8 +4082,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106">
-        <v>7</v>
+      <c r="E106" t="s">
+        <v>254</v>
       </c>
       <c r="F106">
         <v>44818818</v>
@@ -4090,7 +4091,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B107" t="s">
         <v>102</v>
@@ -4101,8 +4102,8 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107">
-        <v>8</v>
+      <c r="E107" t="s">
+        <v>255</v>
       </c>
       <c r="F107">
         <v>44818819</v>
@@ -4121,8 +4122,8 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108">
-        <v>9</v>
+      <c r="E108" t="s">
+        <v>256</v>
       </c>
       <c r="F108">
         <v>44818820</v>
@@ -4141,8 +4142,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109">
-        <v>10</v>
+      <c r="E109" t="s">
+        <v>8</v>
       </c>
       <c r="F109">
         <v>44818821</v>
@@ -4150,7 +4151,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B110" t="s">
         <v>105</v>
@@ -4161,8 +4162,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110">
-        <v>11</v>
+      <c r="E110" t="s">
+        <v>518</v>
       </c>
       <c r="F110">
         <v>44818822</v>
@@ -4181,8 +4182,8 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111">
-        <v>12</v>
+      <c r="E111" t="s">
+        <v>318</v>
       </c>
       <c r="F111">
         <v>44818823</v>
@@ -4201,8 +4202,8 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112">
-        <v>13</v>
+      <c r="E112" t="s">
+        <v>319</v>
       </c>
       <c r="F112">
         <v>44818824</v>
@@ -4210,7 +4211,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s">
         <v>108</v>
@@ -4221,8 +4222,8 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113">
-        <v>14</v>
+      <c r="E113" t="s">
+        <v>340</v>
       </c>
       <c r="F113">
         <v>44818825</v>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s">
         <v>109</v>
@@ -4241,8 +4242,8 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114">
-        <v>15</v>
+      <c r="E114" t="s">
+        <v>334</v>
       </c>
       <c r="F114">
         <v>44818826</v>
@@ -4250,7 +4251,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s">
         <v>110</v>
@@ -4261,8 +4262,8 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115">
-        <v>16</v>
+      <c r="E115" t="s">
+        <v>520</v>
       </c>
       <c r="F115">
         <v>44818827</v>
@@ -4281,8 +4282,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116">
-        <v>17</v>
+      <c r="E116" t="s">
+        <v>335</v>
       </c>
       <c r="F116">
         <v>44818828</v>
@@ -4301,8 +4302,8 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117">
-        <v>18</v>
+      <c r="E117" t="s">
+        <v>332</v>
       </c>
       <c r="F117">
         <v>44818829</v>
@@ -4321,8 +4322,8 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118">
-        <v>19</v>
+      <c r="E118" t="s">
+        <v>336</v>
       </c>
       <c r="F118">
         <v>44818830</v>
@@ -4330,7 +4331,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" t="s">
         <v>114</v>
@@ -4341,8 +4342,8 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119">
-        <v>20</v>
+      <c r="E119" t="s">
+        <v>399</v>
       </c>
       <c r="F119">
         <v>44818831</v>
@@ -4361,8 +4362,8 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120">
-        <v>21</v>
+      <c r="E120" t="s">
+        <v>320</v>
       </c>
       <c r="F120">
         <v>44818832</v>
@@ -4370,7 +4371,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" t="s">
         <v>116</v>
@@ -4381,8 +4382,8 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121">
-        <v>22</v>
+      <c r="E121" t="s">
+        <v>337</v>
       </c>
       <c r="F121">
         <v>44818833</v>
@@ -4401,8 +4402,8 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122">
-        <v>23</v>
+      <c r="E122" t="s">
+        <v>321</v>
       </c>
       <c r="F122">
         <v>44818834</v>
@@ -4410,7 +4411,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B123" t="s">
         <v>118</v>
@@ -4421,8 +4422,8 @@
       <c r="D123">
         <v>0</v>
       </c>
-      <c r="E123">
-        <v>24</v>
+      <c r="E123" t="s">
+        <v>341</v>
       </c>
       <c r="F123">
         <v>44818835</v>
@@ -4430,7 +4431,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s">
         <v>119</v>
@@ -4441,8 +4442,8 @@
       <c r="D124">
         <v>0</v>
       </c>
-      <c r="E124">
-        <v>25</v>
+      <c r="E124" t="s">
+        <v>342</v>
       </c>
       <c r="F124">
         <v>44818836</v>
@@ -4461,8 +4462,8 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125">
-        <v>26</v>
+      <c r="E125" t="s">
+        <v>343</v>
       </c>
       <c r="F125">
         <v>44818837</v>
@@ -4470,7 +4471,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s">
         <v>121</v>
@@ -4481,8 +4482,8 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126">
-        <v>27</v>
+      <c r="E126" t="s">
+        <v>328</v>
       </c>
       <c r="F126">
         <v>44818838</v>
@@ -4490,7 +4491,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B127" t="s">
         <v>122</v>
@@ -4501,8 +4502,8 @@
       <c r="D127">
         <v>0</v>
       </c>
-      <c r="E127">
-        <v>28</v>
+      <c r="E127" t="s">
+        <v>380</v>
       </c>
       <c r="F127">
         <v>44818839</v>
@@ -4510,7 +4511,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B128" t="s">
         <v>123</v>
@@ -4521,8 +4522,8 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128">
-        <v>29</v>
+      <c r="E128" t="s">
+        <v>388</v>
       </c>
       <c r="F128">
         <v>44818840</v>
@@ -4530,7 +4531,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B129" t="s">
         <v>124</v>
@@ -4541,8 +4542,8 @@
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129">
-        <v>30</v>
+      <c r="E129" t="s">
+        <v>350</v>
       </c>
       <c r="F129">
         <v>44818841</v>
@@ -4561,8 +4562,8 @@
       <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130">
-        <v>31</v>
+      <c r="E130" t="s">
+        <v>263</v>
       </c>
       <c r="F130">
         <v>44818842</v>
@@ -4570,7 +4571,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B131" t="s">
         <v>126</v>
@@ -4581,8 +4582,8 @@
       <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131">
-        <v>32</v>
+      <c r="E131" t="s">
+        <v>344</v>
       </c>
       <c r="F131">
         <v>44818843</v>
@@ -4601,8 +4602,8 @@
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132">
-        <v>33</v>
+      <c r="E132" t="s">
+        <v>264</v>
       </c>
       <c r="F132">
         <v>44818844</v>
@@ -4621,8 +4622,8 @@
       <c r="D133">
         <v>0</v>
       </c>
-      <c r="E133">
-        <v>34</v>
+      <c r="E133" t="s">
+        <v>265</v>
       </c>
       <c r="F133">
         <v>44818845</v>
@@ -4641,8 +4642,8 @@
       <c r="D134">
         <v>0</v>
       </c>
-      <c r="E134">
-        <v>35</v>
+      <c r="E134" t="s">
+        <v>266</v>
       </c>
       <c r="F134">
         <v>44818846</v>
@@ -4661,8 +4662,8 @@
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135">
-        <v>36</v>
+      <c r="E135" t="s">
+        <v>267</v>
       </c>
       <c r="F135">
         <v>44818847</v>
@@ -4681,8 +4682,8 @@
       <c r="D136">
         <v>0</v>
       </c>
-      <c r="E136">
-        <v>37</v>
+      <c r="E136" t="s">
+        <v>268</v>
       </c>
       <c r="F136">
         <v>44818848</v>
@@ -4701,8 +4702,8 @@
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137">
-        <v>38</v>
+      <c r="E137" t="s">
+        <v>269</v>
       </c>
       <c r="F137">
         <v>44818849</v>
@@ -4721,8 +4722,8 @@
       <c r="D138">
         <v>0</v>
       </c>
-      <c r="E138">
-        <v>39</v>
+      <c r="E138" t="s">
+        <v>270</v>
       </c>
       <c r="F138">
         <v>44818850</v>
@@ -4741,8 +4742,8 @@
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="E139">
-        <v>40</v>
+      <c r="E139" t="s">
+        <v>271</v>
       </c>
       <c r="F139">
         <v>44818851</v>
@@ -4750,7 +4751,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s">
         <v>135</v>
@@ -4761,8 +4762,8 @@
       <c r="D140">
         <v>0</v>
       </c>
-      <c r="E140">
-        <v>41</v>
+      <c r="E140" t="s">
+        <v>363</v>
       </c>
       <c r="F140">
         <v>44818852</v>
@@ -4770,7 +4771,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B141" t="s">
         <v>136</v>
@@ -4781,8 +4782,8 @@
       <c r="D141">
         <v>0</v>
       </c>
-      <c r="E141">
-        <v>42</v>
+      <c r="E141" t="s">
+        <v>364</v>
       </c>
       <c r="F141">
         <v>44818853</v>
@@ -4801,8 +4802,8 @@
       <c r="D142">
         <v>0</v>
       </c>
-      <c r="E142">
-        <v>43</v>
+      <c r="E142" t="s">
+        <v>272</v>
       </c>
       <c r="F142">
         <v>44818854</v>
@@ -4821,8 +4822,8 @@
       <c r="D143">
         <v>0</v>
       </c>
-      <c r="E143">
-        <v>44</v>
+      <c r="E143" t="s">
+        <v>273</v>
       </c>
       <c r="F143">
         <v>44818855</v>
@@ -4841,8 +4842,8 @@
       <c r="D144">
         <v>0</v>
       </c>
-      <c r="E144">
-        <v>45</v>
+      <c r="E144" t="s">
+        <v>274</v>
       </c>
       <c r="F144">
         <v>44818856</v>
@@ -4861,8 +4862,8 @@
       <c r="D145">
         <v>0</v>
       </c>
-      <c r="E145">
-        <v>46</v>
+      <c r="E145" t="s">
+        <v>275</v>
       </c>
       <c r="F145">
         <v>44818857</v>
@@ -4881,8 +4882,8 @@
       <c r="D146">
         <v>0</v>
       </c>
-      <c r="E146">
-        <v>47</v>
+      <c r="E146" t="s">
+        <v>345</v>
       </c>
       <c r="F146">
         <v>44818858</v>
@@ -4901,8 +4902,8 @@
       <c r="D147">
         <v>0</v>
       </c>
-      <c r="E147">
-        <v>48</v>
+      <c r="E147" t="s">
+        <v>329</v>
       </c>
       <c r="F147">
         <v>44818859</v>
@@ -4921,8 +4922,8 @@
       <c r="D148">
         <v>0</v>
       </c>
-      <c r="E148">
-        <v>49</v>
+      <c r="E148" t="s">
+        <v>276</v>
       </c>
       <c r="F148">
         <v>44818860</v>
@@ -4941,8 +4942,8 @@
       <c r="D149">
         <v>0</v>
       </c>
-      <c r="E149">
-        <v>50</v>
+      <c r="E149" t="s">
+        <v>277</v>
       </c>
       <c r="F149">
         <v>44818861</v>
@@ -4950,7 +4951,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B150" t="s">
         <v>145</v>
@@ -4961,8 +4962,8 @@
       <c r="D150">
         <v>0</v>
       </c>
-      <c r="E150">
-        <v>51</v>
+      <c r="E150" t="s">
+        <v>366</v>
       </c>
       <c r="F150">
         <v>44818862</v>
@@ -4970,7 +4971,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B151" t="s">
         <v>146</v>
@@ -4981,8 +4982,8 @@
       <c r="D151">
         <v>0</v>
       </c>
-      <c r="E151">
-        <v>52</v>
+      <c r="E151" t="s">
+        <v>367</v>
       </c>
       <c r="F151">
         <v>44818863</v>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B152" t="s">
         <v>147</v>
@@ -5001,8 +5002,8 @@
       <c r="D152">
         <v>0</v>
       </c>
-      <c r="E152">
-        <v>53</v>
+      <c r="E152" t="s">
+        <v>368</v>
       </c>
       <c r="F152">
         <v>44818864</v>
@@ -5021,8 +5022,8 @@
       <c r="D153">
         <v>0</v>
       </c>
-      <c r="E153">
-        <v>54</v>
+      <c r="E153" t="s">
+        <v>278</v>
       </c>
       <c r="F153">
         <v>44818865</v>
@@ -5041,8 +5042,8 @@
       <c r="D154">
         <v>0</v>
       </c>
-      <c r="E154">
-        <v>55</v>
+      <c r="E154" t="s">
+        <v>279</v>
       </c>
       <c r="F154">
         <v>44818866</v>
@@ -5050,7 +5051,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B155" t="s">
         <v>150</v>
@@ -5061,8 +5062,8 @@
       <c r="D155">
         <v>0</v>
       </c>
-      <c r="E155">
-        <v>56</v>
+      <c r="E155" t="s">
+        <v>347</v>
       </c>
       <c r="F155">
         <v>44818867</v>
@@ -5070,7 +5071,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B156" t="s">
         <v>151</v>
@@ -5081,8 +5082,8 @@
       <c r="D156">
         <v>0</v>
       </c>
-      <c r="E156">
-        <v>57</v>
+      <c r="E156" t="s">
+        <v>348</v>
       </c>
       <c r="F156">
         <v>44818868</v>
@@ -5090,7 +5091,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B157" t="s">
         <v>152</v>
@@ -5101,8 +5102,8 @@
       <c r="D157">
         <v>0</v>
       </c>
-      <c r="E157">
-        <v>58</v>
+      <c r="E157" t="s">
+        <v>349</v>
       </c>
       <c r="F157">
         <v>44818869</v>
@@ -5121,8 +5122,8 @@
       <c r="D158">
         <v>0</v>
       </c>
-      <c r="E158">
-        <v>59</v>
+      <c r="E158" t="s">
+        <v>280</v>
       </c>
       <c r="F158">
         <v>44818870</v>
@@ -5141,8 +5142,8 @@
       <c r="D159">
         <v>0</v>
       </c>
-      <c r="E159">
-        <v>60</v>
+      <c r="E159" t="s">
+        <v>281</v>
       </c>
       <c r="F159">
         <v>44818871</v>
@@ -5161,8 +5162,8 @@
       <c r="D160">
         <v>0</v>
       </c>
-      <c r="E160">
-        <v>61</v>
+      <c r="E160" t="s">
+        <v>282</v>
       </c>
       <c r="F160">
         <v>44818872</v>
@@ -5181,8 +5182,8 @@
       <c r="D161">
         <v>0</v>
       </c>
-      <c r="E161">
-        <v>62</v>
+      <c r="E161" t="s">
+        <v>351</v>
       </c>
       <c r="F161">
         <v>44818873</v>
@@ -5190,7 +5191,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
@@ -5201,8 +5202,8 @@
       <c r="D162">
         <v>0</v>
       </c>
-      <c r="E162">
-        <v>63</v>
+      <c r="E162" t="s">
+        <v>357</v>
       </c>
       <c r="F162">
         <v>44818874</v>
@@ -5210,7 +5211,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B163" t="s">
         <v>158</v>
@@ -5221,8 +5222,8 @@
       <c r="D163">
         <v>0</v>
       </c>
-      <c r="E163">
-        <v>64</v>
+      <c r="E163" t="s">
+        <v>358</v>
       </c>
       <c r="F163">
         <v>44818875</v>
@@ -5230,7 +5231,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" t="s">
         <v>159</v>
@@ -5241,8 +5242,8 @@
       <c r="D164">
         <v>0</v>
       </c>
-      <c r="E164">
-        <v>65</v>
+      <c r="E164" t="s">
+        <v>359</v>
       </c>
       <c r="F164">
         <v>44818876</v>
@@ -5261,8 +5262,8 @@
       <c r="D165">
         <v>0</v>
       </c>
-      <c r="E165">
-        <v>66</v>
+      <c r="E165" t="s">
+        <v>360</v>
       </c>
       <c r="F165">
         <v>44818877</v>
@@ -5281,8 +5282,8 @@
       <c r="D166">
         <v>0</v>
       </c>
-      <c r="E166">
-        <v>67</v>
+      <c r="E166" t="s">
+        <v>283</v>
       </c>
       <c r="F166">
         <v>44818878</v>
@@ -5290,10 +5291,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -5301,8 +5302,8 @@
       <c r="D167">
         <v>0</v>
       </c>
-      <c r="E167">
-        <v>68</v>
+      <c r="E167" t="s">
+        <v>488</v>
       </c>
       <c r="F167">
         <v>44818879</v>
@@ -5321,8 +5322,8 @@
       <c r="D168">
         <v>0</v>
       </c>
-      <c r="E168">
-        <v>69</v>
+      <c r="E168" t="s">
+        <v>252</v>
       </c>
       <c r="F168">
         <v>44818880</v>
@@ -5341,8 +5342,8 @@
       <c r="D169">
         <v>0</v>
       </c>
-      <c r="E169">
-        <v>70</v>
+      <c r="E169" t="s">
+        <v>284</v>
       </c>
       <c r="F169">
         <v>44818881</v>
@@ -5350,7 +5351,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s">
         <v>164</v>
@@ -5361,8 +5362,8 @@
       <c r="D170">
         <v>0</v>
       </c>
-      <c r="E170">
-        <v>71</v>
+      <c r="E170" t="s">
+        <v>352</v>
       </c>
       <c r="F170">
         <v>44818882</v>
@@ -5370,7 +5371,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s">
         <v>165</v>
@@ -5381,8 +5382,8 @@
       <c r="D171">
         <v>0</v>
       </c>
-      <c r="E171">
-        <v>72</v>
+      <c r="E171" t="s">
+        <v>369</v>
       </c>
       <c r="F171">
         <v>44818883</v>
@@ -5390,7 +5391,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s">
         <v>166</v>
@@ -5401,8 +5402,8 @@
       <c r="D172">
         <v>0</v>
       </c>
-      <c r="E172">
-        <v>73</v>
+      <c r="E172" t="s">
+        <v>365</v>
       </c>
       <c r="F172">
         <v>44818884</v>
@@ -5410,7 +5411,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B173" t="s">
         <v>167</v>
@@ -5421,8 +5422,8 @@
       <c r="D173">
         <v>0</v>
       </c>
-      <c r="E173">
-        <v>74</v>
+      <c r="E173" t="s">
+        <v>353</v>
       </c>
       <c r="F173">
         <v>44818885</v>
@@ -5430,7 +5431,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B174" t="s">
         <v>168</v>
@@ -5441,8 +5442,8 @@
       <c r="D174">
         <v>0</v>
       </c>
-      <c r="E174">
-        <v>75</v>
+      <c r="E174" t="s">
+        <v>354</v>
       </c>
       <c r="F174">
         <v>44818886</v>
@@ -5461,8 +5462,8 @@
       <c r="D175">
         <v>0</v>
       </c>
-      <c r="E175">
-        <v>76</v>
+      <c r="E175" t="s">
+        <v>285</v>
       </c>
       <c r="F175">
         <v>44818887</v>
@@ -5470,7 +5471,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B176" t="s">
         <v>170</v>
@@ -5481,8 +5482,8 @@
       <c r="D176">
         <v>0</v>
       </c>
-      <c r="E176">
-        <v>77</v>
+      <c r="E176" t="s">
+        <v>355</v>
       </c>
       <c r="F176">
         <v>44818888</v>
@@ -5501,8 +5502,8 @@
       <c r="D177">
         <v>0</v>
       </c>
-      <c r="E177">
-        <v>78</v>
+      <c r="E177" t="s">
+        <v>286</v>
       </c>
       <c r="F177">
         <v>44818889</v>
@@ -5510,7 +5511,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B178" t="s">
         <v>76</v>
@@ -5521,8 +5522,8 @@
       <c r="D178">
         <v>0</v>
       </c>
-      <c r="E178">
-        <v>79</v>
+      <c r="E178" t="s">
+        <v>509</v>
       </c>
       <c r="F178">
         <v>44818890</v>
@@ -5530,7 +5531,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B179" t="s">
         <v>172</v>
@@ -5541,8 +5542,8 @@
       <c r="D179">
         <v>0</v>
       </c>
-      <c r="E179">
-        <v>80</v>
+      <c r="E179" t="s">
+        <v>370</v>
       </c>
       <c r="F179">
         <v>44818891</v>
@@ -5561,8 +5562,8 @@
       <c r="D180">
         <v>0</v>
       </c>
-      <c r="E180">
-        <v>81</v>
+      <c r="E180" t="s">
+        <v>287</v>
       </c>
       <c r="F180">
         <v>44818892</v>
@@ -5581,8 +5582,8 @@
       <c r="D181">
         <v>0</v>
       </c>
-      <c r="E181">
-        <v>82</v>
+      <c r="E181" t="s">
+        <v>288</v>
       </c>
       <c r="F181">
         <v>44818893</v>
@@ -5590,7 +5591,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="B182" t="s">
         <v>175</v>
@@ -5601,8 +5602,8 @@
       <c r="D182">
         <v>0</v>
       </c>
-      <c r="E182">
-        <v>83</v>
+      <c r="E182" t="s">
+        <v>361</v>
       </c>
       <c r="F182">
         <v>44818894</v>
@@ -5610,7 +5611,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B183" t="s">
         <v>176</v>
@@ -5621,8 +5622,8 @@
       <c r="D183">
         <v>0</v>
       </c>
-      <c r="E183">
-        <v>84</v>
+      <c r="E183" t="s">
+        <v>512</v>
       </c>
       <c r="F183">
         <v>44818895</v>
@@ -5630,7 +5631,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B184" t="s">
         <v>177</v>
@@ -5641,8 +5642,8 @@
       <c r="D184">
         <v>0</v>
       </c>
-      <c r="E184">
-        <v>85</v>
+      <c r="E184" t="s">
+        <v>289</v>
       </c>
       <c r="F184">
         <v>44818896</v>
@@ -5650,7 +5651,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B185" t="s">
         <v>178</v>
@@ -5661,8 +5662,8 @@
       <c r="D185">
         <v>0</v>
       </c>
-      <c r="E185">
-        <v>86</v>
+      <c r="E185" t="s">
+        <v>372</v>
       </c>
       <c r="F185">
         <v>44818897</v>
@@ -5681,8 +5682,8 @@
       <c r="D186">
         <v>0</v>
       </c>
-      <c r="E186">
-        <v>87</v>
+      <c r="E186" t="s">
+        <v>290</v>
       </c>
       <c r="F186">
         <v>44818898</v>
@@ -5690,7 +5691,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B187" t="s">
         <v>180</v>
@@ -5701,8 +5702,8 @@
       <c r="D187">
         <v>0</v>
       </c>
-      <c r="E187">
-        <v>88</v>
+      <c r="E187" t="s">
+        <v>374</v>
       </c>
       <c r="F187">
         <v>44818899</v>
@@ -5710,7 +5711,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B188" t="s">
         <v>181</v>
@@ -5721,8 +5722,8 @@
       <c r="D188">
         <v>1</v>
       </c>
-      <c r="E188">
-        <v>92</v>
+      <c r="E188" t="s">
+        <v>381</v>
       </c>
       <c r="F188">
         <v>44818900</v>
@@ -5730,7 +5731,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B189" t="s">
         <v>182</v>
@@ -5741,8 +5742,8 @@
       <c r="D189">
         <v>1</v>
       </c>
-      <c r="E189">
-        <v>93</v>
+      <c r="E189" t="s">
+        <v>389</v>
       </c>
       <c r="F189">
         <v>44818901</v>
@@ -5750,7 +5751,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B190" t="s">
         <v>183</v>
@@ -5761,8 +5762,8 @@
       <c r="D190">
         <v>1</v>
       </c>
-      <c r="E190">
-        <v>94</v>
+      <c r="E190" t="s">
+        <v>382</v>
       </c>
       <c r="F190">
         <v>44818902</v>
@@ -5770,7 +5771,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B191" t="s">
         <v>184</v>
@@ -5781,8 +5782,8 @@
       <c r="D191">
         <v>0</v>
       </c>
-      <c r="E191">
-        <v>125</v>
+      <c r="E191" t="s">
+        <v>383</v>
       </c>
       <c r="F191">
         <v>44818903</v>
@@ -5790,7 +5791,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B192" t="s">
         <v>185</v>
@@ -5801,8 +5802,8 @@
       <c r="D192">
         <v>1</v>
       </c>
-      <c r="E192">
-        <v>126</v>
+      <c r="E192" t="s">
+        <v>423</v>
       </c>
       <c r="F192">
         <v>44818904</v>
@@ -5810,7 +5811,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B193" t="s">
         <v>186</v>
@@ -5821,8 +5822,8 @@
       <c r="D193">
         <v>1</v>
       </c>
-      <c r="E193">
-        <v>127</v>
+      <c r="E193" t="s">
+        <v>392</v>
       </c>
       <c r="F193">
         <v>44818905</v>
@@ -5830,7 +5831,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B194" t="s">
         <v>187</v>
@@ -5841,8 +5842,8 @@
       <c r="D194">
         <v>0</v>
       </c>
-      <c r="E194">
-        <v>129</v>
+      <c r="E194" t="s">
+        <v>395</v>
       </c>
       <c r="F194">
         <v>44818906</v>
@@ -5850,7 +5851,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B195" t="s">
         <v>188</v>
@@ -5861,8 +5862,8 @@
       <c r="D195">
         <v>0</v>
       </c>
-      <c r="E195">
-        <v>130</v>
+      <c r="E195" t="s">
+        <v>376</v>
       </c>
       <c r="F195">
         <v>44818907</v>
@@ -5870,7 +5871,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B196" t="s">
         <v>189</v>
@@ -5881,8 +5882,8 @@
       <c r="D196">
         <v>0</v>
       </c>
-      <c r="E196">
-        <v>131</v>
+      <c r="E196" t="s">
+        <v>377</v>
       </c>
       <c r="F196">
         <v>44818908</v>
@@ -5890,7 +5891,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B197" t="s">
         <v>190</v>
@@ -5901,8 +5902,8 @@
       <c r="D197">
         <v>0</v>
       </c>
-      <c r="E197">
-        <v>132</v>
+      <c r="E197" t="s">
+        <v>492</v>
       </c>
       <c r="F197">
         <v>44818909</v>
@@ -5910,7 +5911,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B198" t="s">
         <v>191</v>
@@ -5921,8 +5922,8 @@
       <c r="D198">
         <v>0</v>
       </c>
-      <c r="E198">
-        <v>248</v>
+      <c r="E198" t="s">
+        <v>427</v>
       </c>
       <c r="F198">
         <v>44818910</v>
@@ -5930,7 +5931,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B199" t="s">
         <v>192</v>
@@ -5941,8 +5942,8 @@
       <c r="D199">
         <v>0</v>
       </c>
-      <c r="E199">
-        <v>247</v>
+      <c r="E199" t="s">
+        <v>426</v>
       </c>
       <c r="F199">
         <v>44818911</v>
@@ -5950,7 +5951,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
@@ -5961,8 +5962,8 @@
       <c r="D200">
         <v>0</v>
       </c>
-      <c r="E200">
-        <v>276</v>
+      <c r="E200" t="s">
+        <v>429</v>
       </c>
       <c r="F200">
         <v>44818912</v>
@@ -5970,7 +5971,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B201" t="s">
         <v>194</v>
@@ -5981,8 +5982,8 @@
       <c r="D201">
         <v>1</v>
       </c>
-      <c r="E201">
-        <v>275</v>
+      <c r="E201" t="s">
+        <v>428</v>
       </c>
       <c r="F201">
         <v>44818913</v>
@@ -5990,7 +5991,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B202" t="s">
         <v>195</v>
@@ -6001,8 +6002,8 @@
       <c r="D202">
         <v>0</v>
       </c>
-      <c r="E202">
-        <v>278</v>
+      <c r="E202" t="s">
+        <v>431</v>
       </c>
       <c r="F202">
         <v>44818914</v>
@@ -6010,7 +6011,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B203" t="s">
         <v>196</v>
@@ -6021,8 +6022,8 @@
       <c r="D203">
         <v>0</v>
       </c>
-      <c r="E203">
-        <v>277</v>
+      <c r="E203" t="s">
+        <v>430</v>
       </c>
       <c r="F203">
         <v>44818915</v>
@@ -6030,7 +6031,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B204" t="s">
         <v>197</v>
@@ -6041,8 +6042,8 @@
       <c r="D204">
         <v>0</v>
       </c>
-      <c r="E204">
-        <v>280</v>
+      <c r="E204" t="s">
+        <v>433</v>
       </c>
       <c r="F204">
         <v>44818916</v>
@@ -6050,7 +6051,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B205" t="s">
         <v>198</v>
@@ -6061,8 +6062,8 @@
       <c r="D205">
         <v>1</v>
       </c>
-      <c r="E205">
-        <v>279</v>
+      <c r="E205" t="s">
+        <v>432</v>
       </c>
       <c r="F205">
         <v>44818917</v>
@@ -6070,7 +6071,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B206" t="s">
         <v>199</v>
@@ -6081,8 +6082,8 @@
       <c r="D206">
         <v>1</v>
       </c>
-      <c r="E206">
-        <v>282</v>
+      <c r="E206" t="s">
+        <v>435</v>
       </c>
       <c r="F206">
         <v>44818918</v>
@@ -6090,7 +6091,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B207" t="s">
         <v>200</v>
@@ -6101,8 +6102,8 @@
       <c r="D207">
         <v>0</v>
       </c>
-      <c r="E207">
-        <v>281</v>
+      <c r="E207" t="s">
+        <v>434</v>
       </c>
       <c r="F207">
         <v>44818919</v>
@@ -6110,7 +6111,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B208" t="s">
         <v>201</v>
@@ -6121,8 +6122,8 @@
       <c r="D208">
         <v>1</v>
       </c>
-      <c r="E208">
-        <v>284</v>
+      <c r="E208" t="s">
+        <v>437</v>
       </c>
       <c r="F208">
         <v>44818920</v>
@@ -6130,7 +6131,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B209" t="s">
         <v>202</v>
@@ -6141,8 +6142,8 @@
       <c r="D209">
         <v>0</v>
       </c>
-      <c r="E209">
-        <v>283</v>
+      <c r="E209" t="s">
+        <v>436</v>
       </c>
       <c r="F209">
         <v>44818921</v>
@@ -6150,7 +6151,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B210" t="s">
         <v>203</v>
@@ -6161,8 +6162,8 @@
       <c r="D210">
         <v>0</v>
       </c>
-      <c r="E210">
-        <v>286</v>
+      <c r="E210" t="s">
+        <v>439</v>
       </c>
       <c r="F210">
         <v>44818922</v>
@@ -6170,7 +6171,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B211" t="s">
         <v>204</v>
@@ -6181,8 +6182,8 @@
       <c r="D211">
         <v>1</v>
       </c>
-      <c r="E211">
-        <v>285</v>
+      <c r="E211" t="s">
+        <v>438</v>
       </c>
       <c r="F211">
         <v>44818923</v>
@@ -6190,7 +6191,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B212" t="s">
         <v>205</v>
@@ -6201,8 +6202,8 @@
       <c r="D212">
         <v>1</v>
       </c>
-      <c r="E212">
-        <v>288</v>
+      <c r="E212" t="s">
+        <v>441</v>
       </c>
       <c r="F212">
         <v>44818924</v>
@@ -6210,7 +6211,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B213" t="s">
         <v>206</v>
@@ -6221,8 +6222,8 @@
       <c r="D213">
         <v>0</v>
       </c>
-      <c r="E213">
-        <v>287</v>
+      <c r="E213" t="s">
+        <v>440</v>
       </c>
       <c r="F213">
         <v>44818925</v>
@@ -6230,7 +6231,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B214" t="s">
         <v>207</v>
@@ -6241,8 +6242,8 @@
       <c r="D214">
         <v>1</v>
       </c>
-      <c r="E214">
-        <v>290</v>
+      <c r="E214" t="s">
+        <v>443</v>
       </c>
       <c r="F214">
         <v>44818926</v>
@@ -6250,7 +6251,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B215" t="s">
         <v>208</v>
@@ -6261,8 +6262,8 @@
       <c r="D215">
         <v>0</v>
       </c>
-      <c r="E215">
-        <v>289</v>
+      <c r="E215" t="s">
+        <v>442</v>
       </c>
       <c r="F215">
         <v>44818927</v>
@@ -6270,7 +6271,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B216" t="s">
         <v>209</v>
@@ -6281,8 +6282,8 @@
       <c r="D216">
         <v>1</v>
       </c>
-      <c r="E216">
-        <v>292</v>
+      <c r="E216" t="s">
+        <v>445</v>
       </c>
       <c r="F216">
         <v>44818928</v>
@@ -6290,7 +6291,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B217" t="s">
         <v>210</v>
@@ -6301,8 +6302,8 @@
       <c r="D217">
         <v>0</v>
       </c>
-      <c r="E217">
-        <v>291</v>
+      <c r="E217" t="s">
+        <v>444</v>
       </c>
       <c r="F217">
         <v>44818929</v>
@@ -6310,7 +6311,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B218" t="s">
         <v>211</v>
@@ -6321,8 +6322,8 @@
       <c r="D218">
         <v>1</v>
       </c>
-      <c r="E218">
-        <v>294</v>
+      <c r="E218" t="s">
+        <v>448</v>
       </c>
       <c r="F218">
         <v>44818930</v>
@@ -6330,7 +6331,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B219" t="s">
         <v>212</v>
@@ -6341,8 +6342,8 @@
       <c r="D219">
         <v>0</v>
       </c>
-      <c r="E219">
-        <v>293</v>
+      <c r="E219" t="s">
+        <v>446</v>
       </c>
       <c r="F219">
         <v>44818931</v>
@@ -6350,7 +6351,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B220" t="s">
         <v>213</v>
@@ -6361,8 +6362,8 @@
       <c r="D220">
         <v>0</v>
       </c>
-      <c r="E220">
-        <v>296</v>
+      <c r="E220" t="s">
+        <v>449</v>
       </c>
       <c r="F220">
         <v>44818932</v>
@@ -6370,7 +6371,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B221" t="s">
         <v>214</v>
@@ -6381,8 +6382,8 @@
       <c r="D221">
         <v>0</v>
       </c>
-      <c r="E221">
-        <v>295</v>
+      <c r="E221" t="s">
+        <v>447</v>
       </c>
       <c r="F221">
         <v>44818933</v>
@@ -6390,7 +6391,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B222" t="s">
         <v>215</v>
@@ -6401,8 +6402,8 @@
       <c r="D222">
         <v>1</v>
       </c>
-      <c r="E222">
-        <v>298</v>
+      <c r="E222" t="s">
+        <v>451</v>
       </c>
       <c r="F222">
         <v>44818934</v>
@@ -6410,7 +6411,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B223" t="s">
         <v>216</v>
@@ -6421,8 +6422,8 @@
       <c r="D223">
         <v>0</v>
       </c>
-      <c r="E223">
-        <v>297</v>
+      <c r="E223" t="s">
+        <v>450</v>
       </c>
       <c r="F223">
         <v>44818935</v>
@@ -6430,7 +6431,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B224" t="s">
         <v>217</v>
@@ -6441,8 +6442,8 @@
       <c r="D224">
         <v>0</v>
       </c>
-      <c r="E224">
-        <v>300</v>
+      <c r="E224" t="s">
+        <v>453</v>
       </c>
       <c r="F224">
         <v>44818936</v>
@@ -6450,7 +6451,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
         <v>218</v>
@@ -6461,8 +6462,8 @@
       <c r="D225">
         <v>0</v>
       </c>
-      <c r="E225">
-        <v>299</v>
+      <c r="E225" t="s">
+        <v>452</v>
       </c>
       <c r="F225">
         <v>44818937</v>
@@ -6470,7 +6471,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B226" t="s">
         <v>219</v>
@@ -6481,8 +6482,8 @@
       <c r="D226">
         <v>0</v>
       </c>
-      <c r="E226">
-        <v>302</v>
+      <c r="E226" t="s">
+        <v>455</v>
       </c>
       <c r="F226">
         <v>44818938</v>
@@ -6490,7 +6491,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B227" t="s">
         <v>220</v>
@@ -6501,8 +6502,8 @@
       <c r="D227">
         <v>1</v>
       </c>
-      <c r="E227">
-        <v>301</v>
+      <c r="E227" t="s">
+        <v>454</v>
       </c>
       <c r="F227">
         <v>44818939</v>
@@ -6510,7 +6511,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B228" t="s">
         <v>221</v>
@@ -6521,8 +6522,8 @@
       <c r="D228">
         <v>1</v>
       </c>
-      <c r="E228">
-        <v>304</v>
+      <c r="E228" t="s">
+        <v>457</v>
       </c>
       <c r="F228">
         <v>44818940</v>
@@ -6530,7 +6531,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B229" t="s">
         <v>222</v>
@@ -6541,8 +6542,8 @@
       <c r="D229">
         <v>0</v>
       </c>
-      <c r="E229">
-        <v>303</v>
+      <c r="E229" t="s">
+        <v>456</v>
       </c>
       <c r="F229">
         <v>44818941</v>
@@ -6550,7 +6551,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B230" t="s">
         <v>223</v>
@@ -6561,8 +6562,8 @@
       <c r="D230">
         <v>0</v>
       </c>
-      <c r="E230">
-        <v>306</v>
+      <c r="E230" t="s">
+        <v>459</v>
       </c>
       <c r="F230">
         <v>44818942</v>
@@ -6570,7 +6571,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B231" t="s">
         <v>224</v>
@@ -6581,8 +6582,8 @@
       <c r="D231">
         <v>0</v>
       </c>
-      <c r="E231">
-        <v>305</v>
+      <c r="E231" t="s">
+        <v>458</v>
       </c>
       <c r="F231">
         <v>44818943</v>
@@ -6590,7 +6591,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B232" t="s">
         <v>225</v>
@@ -6601,8 +6602,8 @@
       <c r="D232">
         <v>0</v>
       </c>
-      <c r="E232">
-        <v>308</v>
+      <c r="E232" t="s">
+        <v>461</v>
       </c>
       <c r="F232">
         <v>44818944</v>
@@ -6610,7 +6611,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B233" t="s">
         <v>226</v>
@@ -6621,8 +6622,8 @@
       <c r="D233">
         <v>0</v>
       </c>
-      <c r="E233">
-        <v>307</v>
+      <c r="E233" t="s">
+        <v>460</v>
       </c>
       <c r="F233">
         <v>44818945</v>
@@ -6630,7 +6631,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B234" t="s">
         <v>227</v>
@@ -6641,8 +6642,8 @@
       <c r="D234">
         <v>0</v>
       </c>
-      <c r="E234">
-        <v>310</v>
+      <c r="E234" t="s">
+        <v>476</v>
       </c>
       <c r="F234">
         <v>44818946</v>
@@ -6650,7 +6651,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B235" t="s">
         <v>228</v>
@@ -6661,8 +6662,8 @@
       <c r="D235">
         <v>0</v>
       </c>
-      <c r="E235">
-        <v>309</v>
+      <c r="E235" t="s">
+        <v>475</v>
       </c>
       <c r="F235">
         <v>44818947</v>
@@ -6670,7 +6671,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B236" t="s">
         <v>229</v>
@@ -6681,8 +6682,8 @@
       <c r="D236">
         <v>0</v>
       </c>
-      <c r="E236">
-        <v>312</v>
+      <c r="E236" t="s">
+        <v>473</v>
       </c>
       <c r="F236">
         <v>44818948</v>
@@ -6690,7 +6691,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B237" t="s">
         <v>230</v>
@@ -6701,8 +6702,8 @@
       <c r="D237">
         <v>0</v>
       </c>
-      <c r="E237">
-        <v>311</v>
+      <c r="E237" t="s">
+        <v>474</v>
       </c>
       <c r="F237">
         <v>44818949</v>
@@ -6710,10 +6711,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>466</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -6721,8 +6722,8 @@
       <c r="D238">
         <v>0</v>
       </c>
-      <c r="E238">
-        <v>316</v>
+      <c r="E238" t="s">
+        <v>501</v>
       </c>
       <c r="F238">
         <v>44818950</v>
@@ -6730,19 +6731,19 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="B239" t="s">
-        <v>232</v>
+        <v>467</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="E239">
-        <v>315</v>
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>500</v>
       </c>
       <c r="F239">
         <v>44818951</v>
@@ -6750,10 +6751,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B240" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -6761,8 +6762,8 @@
       <c r="D240">
         <v>0</v>
       </c>
-      <c r="E240">
-        <v>318</v>
+      <c r="E240" t="s">
+        <v>523</v>
       </c>
       <c r="F240">
         <v>44818952</v>
@@ -6770,10 +6771,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B241" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -6781,8 +6782,8 @@
       <c r="D241">
         <v>1</v>
       </c>
-      <c r="E241">
-        <v>317</v>
+      <c r="E241" t="s">
+        <v>522</v>
       </c>
       <c r="F241">
         <v>44818953</v>
@@ -6793,7 +6794,7 @@
         <v>526</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -6801,8 +6802,8 @@
       <c r="D242">
         <v>0</v>
       </c>
-      <c r="E242">
-        <v>320</v>
+      <c r="E242" t="s">
+        <v>524</v>
       </c>
       <c r="F242">
         <v>44818954</v>
@@ -6810,10 +6811,10 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -6821,8 +6822,8 @@
       <c r="D243">
         <v>1</v>
       </c>
-      <c r="E243">
-        <v>319</v>
+      <c r="E243" t="s">
+        <v>526</v>
       </c>
       <c r="F243">
         <v>44818955</v>
@@ -6830,10 +6831,10 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>237</v>
+        <v>525</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -6841,8 +6842,8 @@
       <c r="D244">
         <v>0</v>
       </c>
-      <c r="E244">
-        <v>348</v>
+      <c r="E244" t="s">
+        <v>521</v>
       </c>
       <c r="F244">
         <v>44818956</v>
@@ -6850,19 +6851,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>238</v>
+        <v>521</v>
       </c>
       <c r="B245" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
       <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>347</v>
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>525</v>
       </c>
       <c r="F245">
         <v>44818957</v>
@@ -6870,10 +6871,10 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>496</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -6881,8 +6882,8 @@
       <c r="D246">
         <v>0</v>
       </c>
-      <c r="E246">
-        <v>350</v>
+      <c r="E246" t="s">
+        <v>495</v>
       </c>
       <c r="F246">
         <v>44818958</v>
@@ -6890,10 +6891,10 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="B247" t="s">
-        <v>240</v>
+        <v>497</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -6901,8 +6902,8 @@
       <c r="D247">
         <v>0</v>
       </c>
-      <c r="E247">
-        <v>349</v>
+      <c r="E247" t="s">
+        <v>494</v>
       </c>
       <c r="F247">
         <v>44818959</v>
@@ -6910,10 +6911,10 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>502</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -6921,8 +6922,8 @@
       <c r="D248">
         <v>0</v>
       </c>
-      <c r="E248">
-        <v>352</v>
+      <c r="E248" t="s">
+        <v>505</v>
       </c>
       <c r="F248">
         <v>44818960</v>
@@ -6930,10 +6931,10 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>503</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -6941,8 +6942,8 @@
       <c r="D249">
         <v>0</v>
       </c>
-      <c r="E249">
-        <v>351</v>
+      <c r="E249" t="s">
+        <v>504</v>
       </c>
       <c r="F249">
         <v>44818961</v>
@@ -6950,10 +6951,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="B250" t="s">
-        <v>243</v>
+        <v>468</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -6961,8 +6962,8 @@
       <c r="D250">
         <v>0</v>
       </c>
-      <c r="E250">
-        <v>354</v>
+      <c r="E250" t="s">
+        <v>507</v>
       </c>
       <c r="F250">
         <v>44818962</v>
@@ -6970,10 +6971,10 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>469</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -6981,8 +6982,8 @@
       <c r="D251">
         <v>0</v>
       </c>
-      <c r="E251">
-        <v>353</v>
+      <c r="E251" t="s">
+        <v>506</v>
       </c>
       <c r="F251">
         <v>44818963</v>
@@ -6990,10 +6991,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>470</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -7001,8 +7002,8 @@
       <c r="D252">
         <v>0</v>
       </c>
-      <c r="E252">
-        <v>356</v>
+      <c r="E252" t="s">
+        <v>499</v>
       </c>
       <c r="F252">
         <v>44818964</v>
@@ -7010,10 +7011,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B253" t="s">
-        <v>246</v>
+        <v>471</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -7021,8 +7022,8 @@
       <c r="D253">
         <v>0</v>
       </c>
-      <c r="E253">
-        <v>355</v>
+      <c r="E253" t="s">
+        <v>498</v>
       </c>
       <c r="F253">
         <v>44818965</v>
@@ -7030,19 +7031,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>486</v>
+        <v>237</v>
       </c>
       <c r="B254" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>1</v>
-      </c>
-      <c r="E254">
-        <v>358</v>
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>238</v>
       </c>
       <c r="F254">
         <v>44818966</v>
@@ -7050,19 +7051,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>487</v>
+        <v>238</v>
       </c>
       <c r="B255" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
-      <c r="E255">
-        <v>357</v>
+      <c r="E255" t="s">
+        <v>237</v>
       </c>
       <c r="F255">
         <v>44818967</v>
@@ -7070,19 +7071,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>262</v>
+        <v>477</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
-      <c r="E256">
-        <v>360</v>
+      <c r="E256" t="s">
+        <v>478</v>
       </c>
       <c r="F256">
         <v>44818968</v>
@@ -7090,10 +7091,10 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -7101,8 +7102,8 @@
       <c r="D257">
         <v>0</v>
       </c>
-      <c r="E257">
-        <v>359</v>
+      <c r="E257" t="s">
+        <v>477</v>
       </c>
       <c r="F257">
         <v>44818969</v>
@@ -7110,10 +7111,10 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="B258" t="s">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -7121,8 +7122,8 @@
       <c r="D258">
         <v>0</v>
       </c>
-      <c r="E258">
-        <v>327</v>
+      <c r="E258" t="s">
+        <v>480</v>
       </c>
       <c r="F258">
         <v>44818970</v>
@@ -7130,10 +7131,10 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B259" t="s">
-        <v>467</v>
+        <v>242</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -7141,8 +7142,8 @@
       <c r="D259">
         <v>0</v>
       </c>
-      <c r="E259">
-        <v>314</v>
+      <c r="E259" t="s">
+        <v>479</v>
       </c>
       <c r="F259">
         <v>44818971</v>
@@ -7150,10 +7151,10 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B260" t="s">
-        <v>468</v>
+        <v>243</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -7161,8 +7162,8 @@
       <c r="D260">
         <v>0</v>
       </c>
-      <c r="E260">
-        <v>313</v>
+      <c r="E260" t="s">
+        <v>482</v>
       </c>
       <c r="F260">
         <v>44818972</v>
@@ -7170,10 +7171,10 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B261" t="s">
-        <v>504</v>
+        <v>244</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -7181,8 +7182,8 @@
       <c r="D261">
         <v>0</v>
       </c>
-      <c r="E261">
-        <v>325</v>
+      <c r="E261" t="s">
+        <v>481</v>
       </c>
       <c r="F261">
         <v>44818973</v>
@@ -7190,10 +7191,10 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B262" t="s">
-        <v>469</v>
+        <v>245</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -7201,8 +7202,8 @@
       <c r="D262">
         <v>0</v>
       </c>
-      <c r="E262">
-        <v>328</v>
+      <c r="E262" t="s">
+        <v>484</v>
       </c>
       <c r="F262">
         <v>44818974</v>
@@ -7210,10 +7211,10 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="B263" t="s">
-        <v>503</v>
+        <v>246</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -7221,8 +7222,8 @@
       <c r="D263">
         <v>0</v>
       </c>
-      <c r="E263">
-        <v>326</v>
+      <c r="E263" t="s">
+        <v>483</v>
       </c>
       <c r="F263">
         <v>44818975</v>
@@ -7230,19 +7231,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B264" t="s">
-        <v>498</v>
+        <v>247</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
-        <v>321</v>
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>486</v>
       </c>
       <c r="F264">
         <v>44818976</v>
@@ -7250,19 +7251,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B265" t="s">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
-      <c r="E265">
-        <v>322</v>
+      <c r="E265" t="s">
+        <v>485</v>
       </c>
       <c r="F265">
         <v>44818977</v>
@@ -7270,19 +7271,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>499</v>
+        <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>471</v>
+        <v>249</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
-      <c r="E266">
-        <v>346</v>
+      <c r="E266" t="s">
+        <v>487</v>
       </c>
       <c r="F266">
         <v>44818978</v>
@@ -7290,10 +7291,10 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B267" t="s">
-        <v>472</v>
+        <v>250</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -7301,14 +7302,15 @@
       <c r="D267">
         <v>0</v>
       </c>
-      <c r="E267">
-        <v>345</v>
+      <c r="E267" t="s">
+        <v>262</v>
       </c>
       <c r="F267">
         <v>44818979</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D267"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Conversion_from_v4/relationship.xlsx
+++ b/Conversion_from_v4/relationship.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$273</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="553">
   <si>
     <t>Has precise ingredient (RxNorm)</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Using finding informer (SNOMED)</t>
   </si>
   <si>
-    <t>ICD9 procedure to SNOMED equivalent (OMOP)</t>
-  </si>
-  <si>
     <t>CPT-4 to SNOMED category (OMOP)</t>
   </si>
   <si>
@@ -564,9 +561,6 @@
     <t>Finding informer of (SNOMED)</t>
   </si>
   <si>
-    <t>SNOMED to ICD9 procedure equivalent (OMOP)</t>
-  </si>
-  <si>
     <t>SNOMED category to CPT-4 (OMOP)</t>
   </si>
   <si>
@@ -1545,9 +1539,6 @@
     <t>Excluded in map from</t>
   </si>
   <si>
-    <t>relationship_code</t>
-  </si>
-  <si>
     <t>Findinga sso with</t>
   </si>
   <si>
@@ -1617,7 +1608,76 @@
     <t>defines_ancestry</t>
   </si>
   <si>
-    <t>relationship_concept_id</t>
+    <t>relationship_id</t>
+  </si>
+  <si>
+    <t>Maps to value</t>
+  </si>
+  <si>
+    <t>Value mapped from</t>
+  </si>
+  <si>
+    <t>Maps to unit</t>
+  </si>
+  <si>
+    <t>Unit mapped from</t>
+  </si>
+  <si>
+    <t>Maps to type</t>
+  </si>
+  <si>
+    <t>Type mapped from</t>
+  </si>
+  <si>
+    <t>Non-standard to value_as_concept map (OMOP)</t>
+  </si>
+  <si>
+    <t>Value_as_concept to non-standard map (OMOP)</t>
+  </si>
+  <si>
+    <t>Non-standard to unit concept map (OMOP)</t>
+  </si>
+  <si>
+    <t>Unit concept to non-standard map (OMOP)</t>
+  </si>
+  <si>
+    <t>Non-standard to type concept map (OMOP)</t>
+  </si>
+  <si>
+    <t>Type concept to non-standard map (OMOP)</t>
+  </si>
+  <si>
+    <t>concept_id</t>
+  </si>
+  <si>
+    <t>ICD-9-Procedure to SNOMED equivalent (OMOP)</t>
+  </si>
+  <si>
+    <t>SNOMED to ICD-9-Procedure equivalent (OMOP)</t>
+  </si>
+  <si>
+    <t>MedDRA - ICD9CM</t>
+  </si>
+  <si>
+    <t>ICD-9-CM to MedDRA (MSSO)</t>
+  </si>
+  <si>
+    <t>MedDRA to ICD-9-CM (MSSO)</t>
+  </si>
+  <si>
+    <t>ICD9CM - MedDRA</t>
+  </si>
+  <si>
+    <t>ICD9CM - FDB Ind</t>
+  </si>
+  <si>
+    <t>FDB Ind - ICD9CM</t>
+  </si>
+  <si>
+    <t>ICD-9-CM to FDB Indication/Contraindication (FDB)</t>
+  </si>
+  <si>
+    <t>FDB Indication/Contraindication to ICD-9-CM (FDB)</t>
   </si>
 </sst>
 </file>
@@ -1956,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1971,30 +2031,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2003,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F2">
         <v>44818714</v>
@@ -2011,7 +2071,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2023,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F3">
         <v>44818715</v>
@@ -2031,7 +2091,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2043,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F4">
         <v>44818716</v>
@@ -2051,7 +2111,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2063,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F5">
         <v>44818717</v>
@@ -2071,7 +2131,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2083,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F6">
         <v>44818718</v>
@@ -2091,7 +2151,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2103,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F7">
         <v>44818719</v>
@@ -2111,7 +2171,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2123,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8">
         <v>44818720</v>
@@ -2131,7 +2191,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2143,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F9">
         <v>44818721</v>
@@ -2151,7 +2211,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2163,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F10">
         <v>44818722</v>
@@ -2183,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>44818723</v>
@@ -2191,7 +2251,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2203,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F12">
         <v>44818724</v>
@@ -2211,7 +2271,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -2223,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F13">
         <v>44818725</v>
@@ -2231,7 +2291,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -2243,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F14">
         <v>44818726</v>
@@ -2251,7 +2311,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -2263,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F15">
         <v>44818727</v>
@@ -2271,7 +2331,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2283,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F16">
         <v>44818728</v>
@@ -2291,7 +2351,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -2303,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F17">
         <v>44818729</v>
@@ -2311,7 +2371,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2323,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F18">
         <v>44818730</v>
@@ -2331,7 +2391,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -2343,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F19">
         <v>44818731</v>
@@ -2351,7 +2411,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -2363,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F20">
         <v>44818732</v>
@@ -2371,7 +2431,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -2383,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F21">
         <v>44818733</v>
@@ -2391,7 +2451,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2403,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F22">
         <v>44818734</v>
@@ -2411,7 +2471,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2423,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F23">
         <v>44818735</v>
@@ -2431,7 +2491,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -2443,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F24">
         <v>44818736</v>
@@ -2451,7 +2511,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2463,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F25">
         <v>44818737</v>
@@ -2471,7 +2531,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -2483,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F26">
         <v>44818738</v>
@@ -2491,7 +2551,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -2503,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F27">
         <v>44818739</v>
@@ -2511,7 +2571,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -2523,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F28">
         <v>44818740</v>
@@ -2531,7 +2591,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2543,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F29">
         <v>44818741</v>
@@ -2551,7 +2611,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -2563,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F30">
         <v>44818742</v>
@@ -2571,7 +2631,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -2583,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F31">
         <v>44818743</v>
@@ -2591,7 +2651,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -2603,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F32">
         <v>44818744</v>
@@ -2611,7 +2671,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -2623,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F33">
         <v>44818745</v>
@@ -2631,7 +2691,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -2643,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F34">
         <v>44818746</v>
@@ -2651,7 +2711,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2663,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F35">
         <v>44818747</v>
@@ -2671,7 +2731,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2683,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F36">
         <v>44818748</v>
@@ -2691,7 +2751,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -2703,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F37">
         <v>44818749</v>
@@ -2711,7 +2771,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -2723,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F38">
         <v>44818750</v>
@@ -2731,7 +2791,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -2743,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F39">
         <v>44818751</v>
@@ -2751,7 +2811,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -2763,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F40">
         <v>44818752</v>
@@ -2771,7 +2831,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
@@ -2783,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F41">
         <v>44818753</v>
@@ -2791,7 +2851,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -2803,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F42">
         <v>44818754</v>
@@ -2811,7 +2871,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2823,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F43">
         <v>44818755</v>
@@ -2831,7 +2891,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -2843,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F44">
         <v>44818756</v>
@@ -2851,7 +2911,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -2863,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F45">
         <v>44818757</v>
@@ -2871,7 +2931,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -2883,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F46">
         <v>44818758</v>
@@ -2891,7 +2951,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
@@ -2903,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F47">
         <v>44818759</v>
@@ -2911,7 +2971,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
@@ -2923,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F48">
         <v>44818760</v>
@@ -2931,7 +2991,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -2943,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F49">
         <v>44818761</v>
@@ -2951,7 +3011,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
@@ -2963,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50">
         <v>44818762</v>
@@ -2971,7 +3031,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -2983,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51">
         <v>44818763</v>
@@ -2991,7 +3051,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -3003,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F52">
         <v>44818764</v>
@@ -3011,7 +3071,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -3023,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F53">
         <v>44818765</v>
@@ -3031,7 +3091,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -3043,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F54">
         <v>44818766</v>
@@ -3051,7 +3111,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
@@ -3063,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F55">
         <v>44818767</v>
@@ -3071,7 +3131,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
@@ -3083,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F56">
         <v>44818768</v>
@@ -3091,7 +3151,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
@@ -3103,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F57">
         <v>44818769</v>
@@ -3111,7 +3171,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
@@ -3123,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F58">
         <v>44818770</v>
@@ -3131,7 +3191,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -3143,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F59">
         <v>44818771</v>
@@ -3151,7 +3211,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -3163,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F60">
         <v>44818772</v>
@@ -3171,7 +3231,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
@@ -3183,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F61">
         <v>44818773</v>
@@ -3191,7 +3251,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -3203,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F62">
         <v>44818774</v>
@@ -3211,7 +3271,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -3223,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F63">
         <v>44818775</v>
@@ -3231,7 +3291,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
@@ -3243,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F64">
         <v>44818776</v>
@@ -3251,7 +3311,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -3263,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F65">
         <v>44818777</v>
@@ -3271,7 +3331,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s">
         <v>63</v>
@@ -3283,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F66">
         <v>44818778</v>
@@ -3291,7 +3351,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
@@ -3303,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F67">
         <v>44818779</v>
@@ -3311,7 +3371,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -3323,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F68">
         <v>44818780</v>
@@ -3331,10 +3391,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3343,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F69">
         <v>44818781</v>
@@ -3351,7 +3411,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
@@ -3363,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F70">
         <v>44818782</v>
@@ -3371,7 +3431,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
@@ -3383,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F71">
         <v>44818783</v>
@@ -3391,7 +3451,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B72" t="s">
         <v>68</v>
@@ -3403,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F72">
         <v>44818784</v>
@@ -3411,7 +3471,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
@@ -3423,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F73">
         <v>44818785</v>
@@ -3431,7 +3491,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
         <v>70</v>
@@ -3443,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F74">
         <v>44818786</v>
@@ -3451,7 +3511,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s">
         <v>71</v>
@@ -3463,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F75">
         <v>44818787</v>
@@ -3471,7 +3531,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
@@ -3483,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F76">
         <v>44818788</v>
@@ -3491,7 +3551,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
@@ -3503,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F77">
         <v>44818789</v>
@@ -3511,7 +3571,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B78" t="s">
         <v>74</v>
@@ -3523,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F78">
         <v>44818790</v>
@@ -3531,7 +3591,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -3543,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F79">
         <v>44818791</v>
@@ -3551,7 +3611,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
@@ -3563,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F80">
         <v>44818792</v>
@@ -3571,7 +3631,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -3583,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F81">
         <v>44818793</v>
@@ -3591,7 +3651,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
@@ -3603,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F82">
         <v>44818794</v>
@@ -3611,7 +3671,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
         <v>79</v>
@@ -3623,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F83">
         <v>44818795</v>
@@ -3631,7 +3691,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
@@ -3643,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F84">
         <v>44818796</v>
@@ -3651,7 +3711,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
@@ -3663,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F85">
         <v>44818797</v>
@@ -3671,7 +3731,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
         <v>82</v>
@@ -3683,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F86">
         <v>44818798</v>
@@ -3691,7 +3751,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
@@ -3703,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F87">
         <v>44818799</v>
@@ -3711,7 +3771,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
@@ -3723,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F88">
         <v>44818800</v>
@@ -3731,7 +3791,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B89" t="s">
         <v>85</v>
@@ -3743,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F89">
         <v>44818801</v>
@@ -3751,10 +3811,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>543</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3763,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F90">
         <v>44818802</v>
@@ -3771,19 +3831,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>387</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
         <v>389</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>391</v>
       </c>
       <c r="F91">
         <v>44818803</v>
@@ -3791,10 +3851,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3803,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F92">
         <v>44818804</v>
@@ -3811,10 +3871,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3823,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F93">
         <v>44818805</v>
@@ -3831,10 +3891,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3843,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F94">
         <v>44818806</v>
@@ -3851,10 +3911,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3863,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F95">
         <v>44818807</v>
@@ -3871,10 +3931,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3883,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F96">
         <v>44818808</v>
@@ -3891,19 +3951,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>374</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
         <v>376</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>378</v>
       </c>
       <c r="F97">
         <v>44818809</v>
@@ -3911,19 +3971,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>375</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
         <v>377</v>
-      </c>
-      <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>379</v>
       </c>
       <c r="F98">
         <v>44818810</v>
@@ -3931,10 +3991,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3943,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F99">
         <v>44818811</v>
@@ -3951,10 +4011,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B100" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3963,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F100">
         <v>44818812</v>
@@ -3971,10 +4031,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3983,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F101">
         <v>44818813</v>
@@ -3991,10 +4051,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4003,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F102">
         <v>44818814</v>
@@ -4011,10 +4071,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4023,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F103">
         <v>44818815</v>
@@ -4031,10 +4091,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4043,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F104">
         <v>44818816</v>
@@ -4051,10 +4111,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -4063,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F105">
         <v>44818817</v>
@@ -4071,10 +4131,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4083,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F106">
         <v>44818818</v>
@@ -4091,10 +4151,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4103,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F107">
         <v>44818819</v>
@@ -4111,10 +4171,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4123,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F108">
         <v>44818820</v>
@@ -4131,10 +4191,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4151,10 +4211,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4163,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F110">
         <v>44818822</v>
@@ -4171,10 +4231,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4183,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F111">
         <v>44818823</v>
@@ -4191,10 +4251,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4203,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F112">
         <v>44818824</v>
@@ -4211,10 +4271,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4223,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F113">
         <v>44818825</v>
@@ -4231,10 +4291,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4243,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F114">
         <v>44818826</v>
@@ -4251,10 +4311,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4263,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F115">
         <v>44818827</v>
@@ -4271,10 +4331,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -4283,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F116">
         <v>44818828</v>
@@ -4291,10 +4351,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -4303,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F117">
         <v>44818829</v>
@@ -4311,10 +4371,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -4323,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F118">
         <v>44818830</v>
@@ -4331,10 +4391,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4343,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F119">
         <v>44818831</v>
@@ -4351,10 +4411,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -4363,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F120">
         <v>44818832</v>
@@ -4371,10 +4431,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -4383,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F121">
         <v>44818833</v>
@@ -4391,10 +4451,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4403,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F122">
         <v>44818834</v>
@@ -4411,10 +4471,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4423,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F123">
         <v>44818835</v>
@@ -4431,10 +4491,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4443,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F124">
         <v>44818836</v>
@@ -4451,10 +4511,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4463,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F125">
         <v>44818837</v>
@@ -4471,10 +4531,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4483,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F126">
         <v>44818838</v>
@@ -4491,10 +4551,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4503,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F127">
         <v>44818839</v>
@@ -4511,10 +4571,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4523,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F128">
         <v>44818840</v>
@@ -4531,10 +4591,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4543,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F129">
         <v>44818841</v>
@@ -4551,10 +4611,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4563,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F130">
         <v>44818842</v>
@@ -4571,10 +4631,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4583,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F131">
         <v>44818843</v>
@@ -4591,10 +4651,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4603,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F132">
         <v>44818844</v>
@@ -4611,10 +4671,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4623,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F133">
         <v>44818845</v>
@@ -4631,10 +4691,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4643,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F134">
         <v>44818846</v>
@@ -4651,10 +4711,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4663,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135">
         <v>44818847</v>
@@ -4671,10 +4731,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4683,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F136">
         <v>44818848</v>
@@ -4691,10 +4751,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4703,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137">
         <v>44818849</v>
@@ -4711,10 +4771,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4723,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F138">
         <v>44818850</v>
@@ -4731,10 +4791,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4743,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139">
         <v>44818851</v>
@@ -4751,10 +4811,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4763,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F140">
         <v>44818852</v>
@@ -4771,10 +4831,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4783,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F141">
         <v>44818853</v>
@@ -4791,10 +4851,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4803,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F142">
         <v>44818854</v>
@@ -4811,10 +4871,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4823,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143">
         <v>44818855</v>
@@ -4831,10 +4891,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4843,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F144">
         <v>44818856</v>
@@ -4851,10 +4911,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4863,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145">
         <v>44818857</v>
@@ -4871,10 +4931,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4883,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F146">
         <v>44818858</v>
@@ -4891,10 +4951,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4903,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F147">
         <v>44818859</v>
@@ -4911,10 +4971,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4923,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F148">
         <v>44818860</v>
@@ -4931,10 +4991,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4943,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F149">
         <v>44818861</v>
@@ -4951,10 +5011,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4963,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F150">
         <v>44818862</v>
@@ -4971,10 +5031,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4983,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F151">
         <v>44818863</v>
@@ -4991,10 +5051,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5003,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F152">
         <v>44818864</v>
@@ -5011,10 +5071,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5023,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F153">
         <v>44818865</v>
@@ -5031,10 +5091,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5043,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F154">
         <v>44818866</v>
@@ -5051,10 +5111,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5063,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F155">
         <v>44818867</v>
@@ -5071,10 +5131,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5083,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F156">
         <v>44818868</v>
@@ -5091,10 +5151,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5103,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F157">
         <v>44818869</v>
@@ -5111,10 +5171,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5123,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F158">
         <v>44818870</v>
@@ -5131,10 +5191,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5143,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F159">
         <v>44818871</v>
@@ -5151,10 +5211,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -5163,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F160">
         <v>44818872</v>
@@ -5171,10 +5231,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5183,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F161">
         <v>44818873</v>
@@ -5191,10 +5251,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -5203,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F162">
         <v>44818874</v>
@@ -5211,10 +5271,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5223,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F163">
         <v>44818875</v>
@@ -5231,10 +5291,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -5243,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F164">
         <v>44818876</v>
@@ -5251,10 +5311,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -5263,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F165">
         <v>44818877</v>
@@ -5271,10 +5331,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -5283,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F166">
         <v>44818878</v>
@@ -5291,10 +5351,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B167" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -5303,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F167">
         <v>44818879</v>
@@ -5311,10 +5371,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -5323,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F168">
         <v>44818880</v>
@@ -5331,10 +5391,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -5343,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F169">
         <v>44818881</v>
@@ -5351,10 +5411,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -5363,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F170">
         <v>44818882</v>
@@ -5371,10 +5431,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -5383,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F171">
         <v>44818883</v>
@@ -5391,10 +5451,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -5403,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F172">
         <v>44818884</v>
@@ -5411,10 +5471,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B173" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -5423,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F173">
         <v>44818885</v>
@@ -5431,10 +5491,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -5443,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F174">
         <v>44818886</v>
@@ -5451,10 +5511,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -5463,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F175">
         <v>44818887</v>
@@ -5471,10 +5531,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -5483,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F176">
         <v>44818888</v>
@@ -5491,10 +5551,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -5503,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F177">
         <v>44818889</v>
@@ -5511,7 +5571,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B178" t="s">
         <v>76</v>
@@ -5523,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F178">
         <v>44818890</v>
@@ -5531,10 +5591,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -5543,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F179">
         <v>44818891</v>
@@ -5551,10 +5611,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -5563,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F180">
         <v>44818892</v>
@@ -5571,10 +5631,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -5583,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F181">
         <v>44818893</v>
@@ -5591,10 +5651,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -5603,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182">
         <v>44818894</v>
@@ -5611,10 +5671,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -5623,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F183">
         <v>44818895</v>
@@ -5631,10 +5691,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -5643,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F184">
         <v>44818896</v>
@@ -5651,10 +5711,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -5663,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F185">
         <v>44818897</v>
@@ -5671,10 +5731,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -5683,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F186">
         <v>44818898</v>
@@ -5691,10 +5751,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5703,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F187">
         <v>44818899</v>
@@ -5711,10 +5771,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>544</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -5723,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F188">
         <v>44818900</v>
@@ -5731,10 +5791,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -5743,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F189">
         <v>44818901</v>
@@ -5751,10 +5811,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -5763,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F190">
         <v>44818902</v>
@@ -5771,10 +5831,10 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -5783,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F191">
         <v>44818903</v>
@@ -5791,10 +5851,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -5803,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F192">
         <v>44818904</v>
@@ -5811,10 +5871,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -5823,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F193">
         <v>44818905</v>
@@ -5831,10 +5891,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -5843,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F194">
         <v>44818906</v>
@@ -5851,10 +5911,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -5863,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F195">
         <v>44818907</v>
@@ -5871,10 +5931,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -5883,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F196">
         <v>44818908</v>
@@ -5891,10 +5951,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -5903,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F197">
         <v>44818909</v>
@@ -5911,10 +5971,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -5923,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F198">
         <v>44818910</v>
@@ -5931,10 +5991,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -5943,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F199">
         <v>44818911</v>
@@ -5951,10 +6011,10 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -5963,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F200">
         <v>44818912</v>
@@ -5971,10 +6031,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -5983,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F201">
         <v>44818913</v>
@@ -5991,10 +6051,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -6003,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F202">
         <v>44818914</v>
@@ -6011,10 +6071,10 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B203" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -6023,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F203">
         <v>44818915</v>
@@ -6031,10 +6091,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -6043,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F204">
         <v>44818916</v>
@@ -6051,10 +6111,10 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -6063,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F205">
         <v>44818917</v>
@@ -6071,10 +6131,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -6083,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F206">
         <v>44818918</v>
@@ -6091,10 +6151,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -6103,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F207">
         <v>44818919</v>
@@ -6111,10 +6171,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -6123,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F208">
         <v>44818920</v>
@@ -6131,10 +6191,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -6143,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F209">
         <v>44818921</v>
@@ -6151,10 +6211,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -6163,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F210">
         <v>44818922</v>
@@ -6171,10 +6231,10 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B211" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -6183,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F211">
         <v>44818923</v>
@@ -6191,10 +6251,10 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B212" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -6203,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F212">
         <v>44818924</v>
@@ -6211,10 +6271,10 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -6223,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F213">
         <v>44818925</v>
@@ -6231,10 +6291,10 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6243,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F214">
         <v>44818926</v>
@@ -6251,10 +6311,10 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -6263,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F215">
         <v>44818927</v>
@@ -6271,10 +6331,10 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -6283,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F216">
         <v>44818928</v>
@@ -6291,10 +6351,10 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B217" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -6303,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F217">
         <v>44818929</v>
@@ -6311,19 +6371,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
+        <v>444</v>
+      </c>
+      <c r="B218" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
         <v>446</v>
-      </c>
-      <c r="B218" t="s">
-        <v>211</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218" t="s">
-        <v>448</v>
       </c>
       <c r="F218">
         <v>44818930</v>
@@ -6331,10 +6391,10 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B219" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -6343,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F219">
         <v>44818931</v>
@@ -6351,19 +6411,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
+        <v>445</v>
+      </c>
+      <c r="B220" t="s">
+        <v>211</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
         <v>447</v>
-      </c>
-      <c r="B220" t="s">
-        <v>213</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>449</v>
       </c>
       <c r="F220">
         <v>44818932</v>
@@ -6371,10 +6431,10 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B221" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -6383,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F221">
         <v>44818933</v>
@@ -6391,10 +6451,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B222" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -6403,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F222">
         <v>44818934</v>
@@ -6411,10 +6471,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -6423,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F223">
         <v>44818935</v>
@@ -6431,10 +6491,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -6443,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F224">
         <v>44818936</v>
@@ -6451,10 +6511,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B225" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -6463,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F225">
         <v>44818937</v>
@@ -6471,10 +6531,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -6483,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F226">
         <v>44818938</v>
@@ -6491,10 +6551,10 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -6503,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F227">
         <v>44818939</v>
@@ -6511,10 +6571,10 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -6523,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F228">
         <v>44818940</v>
@@ -6531,10 +6591,10 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -6543,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F229">
         <v>44818941</v>
@@ -6551,10 +6611,10 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -6563,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F230">
         <v>44818942</v>
@@ -6571,10 +6631,10 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -6583,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F231">
         <v>44818943</v>
@@ -6591,10 +6651,10 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B232" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -6603,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F232">
         <v>44818944</v>
@@ -6611,10 +6671,10 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -6623,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F233">
         <v>44818945</v>
@@ -6631,10 +6691,10 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -6643,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F234">
         <v>44818946</v>
@@ -6651,10 +6711,10 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -6663,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F235">
         <v>44818947</v>
@@ -6671,10 +6731,10 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -6683,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F236">
         <v>44818948</v>
@@ -6691,10 +6751,10 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -6703,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F237">
         <v>44818949</v>
@@ -6711,10 +6771,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>229</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -6723,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="F238">
         <v>44818950</v>
@@ -6731,19 +6791,19 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="B239" t="s">
-        <v>467</v>
+        <v>230</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F239">
         <v>44818951</v>
@@ -6751,7 +6811,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B240" t="s">
         <v>231</v>
@@ -6763,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F240">
         <v>44818952</v>
@@ -6771,7 +6831,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B241" t="s">
         <v>232</v>
@@ -6783,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F241">
         <v>44818953</v>
@@ -6791,7 +6851,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B242" t="s">
         <v>233</v>
@@ -6803,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F242">
         <v>44818954</v>
@@ -6811,7 +6871,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B243" t="s">
         <v>234</v>
@@ -6823,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F243">
         <v>44818955</v>
@@ -6831,7 +6891,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>525</v>
+        <v>235</v>
       </c>
       <c r="B244" t="s">
         <v>235</v>
@@ -6843,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>521</v>
+        <v>236</v>
       </c>
       <c r="F244">
         <v>44818956</v>
@@ -6851,7 +6911,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>521</v>
+        <v>236</v>
       </c>
       <c r="B245" t="s">
         <v>236</v>
@@ -6860,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>525</v>
+        <v>235</v>
       </c>
       <c r="F245">
         <v>44818957</v>
@@ -6871,10 +6931,10 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B246" t="s">
-        <v>496</v>
+        <v>237</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -6883,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F246">
         <v>44818958</v>
@@ -6891,10 +6951,10 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="B247" t="s">
-        <v>497</v>
+        <v>238</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -6903,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F247">
         <v>44818959</v>
@@ -6911,10 +6971,10 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="B248" t="s">
-        <v>502</v>
+        <v>239</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -6923,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="F248">
         <v>44818960</v>
@@ -6931,10 +6991,10 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="B249" t="s">
-        <v>503</v>
+        <v>240</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -6943,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="F249">
         <v>44818961</v>
@@ -6951,10 +7011,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="B250" t="s">
-        <v>468</v>
+        <v>241</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -6963,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="F250">
         <v>44818962</v>
@@ -6971,10 +7031,10 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="B251" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -6983,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="F251">
         <v>44818963</v>
@@ -6991,10 +7051,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B252" t="s">
-        <v>470</v>
+        <v>243</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -7003,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F252">
         <v>44818964</v>
@@ -7011,10 +7071,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B253" t="s">
-        <v>471</v>
+        <v>244</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -7023,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="F253">
         <v>44818965</v>
@@ -7031,19 +7091,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>237</v>
+        <v>483</v>
       </c>
       <c r="B254" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>238</v>
+        <v>484</v>
       </c>
       <c r="F254">
         <v>44818966</v>
@@ -7051,19 +7111,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>238</v>
+        <v>484</v>
       </c>
       <c r="B255" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>237</v>
+        <v>483</v>
       </c>
       <c r="F255">
         <v>44818967</v>
@@ -7071,19 +7131,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>477</v>
+        <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F256">
         <v>44818968</v>
@@ -7091,10 +7151,10 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B257" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -7103,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>260</v>
       </c>
       <c r="F257">
         <v>44818969</v>
@@ -7111,10 +7171,10 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="B258" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -7123,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="F258">
         <v>44818970</v>
@@ -7131,10 +7191,10 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B259" t="s">
-        <v>242</v>
+        <v>464</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -7143,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F259">
         <v>44818971</v>
@@ -7151,10 +7211,10 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="B260" t="s">
-        <v>243</v>
+        <v>465</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -7163,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F260">
         <v>44818972</v>
@@ -7171,10 +7231,10 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B261" t="s">
-        <v>244</v>
+        <v>501</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -7183,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F261">
         <v>44818973</v>
@@ -7191,10 +7251,10 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="B262" t="s">
-        <v>245</v>
+        <v>466</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -7203,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F262">
         <v>44818974</v>
@@ -7211,10 +7271,10 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B263" t="s">
-        <v>246</v>
+        <v>500</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -7223,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="F263">
         <v>44818975</v>
@@ -7231,19 +7291,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B264" t="s">
-        <v>247</v>
+        <v>495</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F264">
         <v>44818976</v>
@@ -7251,19 +7311,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B265" t="s">
-        <v>248</v>
+        <v>494</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F265">
         <v>44818977</v>
@@ -7271,19 +7331,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="B266" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F266">
         <v>44818978</v>
@@ -7291,10 +7351,10 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B267" t="s">
-        <v>250</v>
+        <v>469</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -7303,14 +7363,218 @@
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="F267">
         <v>44818979</v>
       </c>
     </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>540</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>535</v>
+      </c>
+      <c r="F268">
+        <v>44819237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>532</v>
+      </c>
+      <c r="B269" t="s">
+        <v>538</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>533</v>
+      </c>
+      <c r="F269">
+        <v>44819238</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" t="s">
+        <v>536</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>531</v>
+      </c>
+      <c r="F270">
+        <v>44819239</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>534</v>
+      </c>
+      <c r="F271">
+        <v>44819240</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272" t="s">
+        <v>539</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>532</v>
+      </c>
+      <c r="F272">
+        <v>44819241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>531</v>
+      </c>
+      <c r="B273" t="s">
+        <v>537</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>530</v>
+      </c>
+      <c r="F273">
+        <v>44819242</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>545</v>
+      </c>
+      <c r="F274">
+        <v>44819286</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275" t="s">
+        <v>547</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>548</v>
+      </c>
+      <c r="F275">
+        <v>44819287</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>549</v>
+      </c>
+      <c r="B276" t="s">
+        <v>551</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>550</v>
+      </c>
+      <c r="F276">
+        <v>44819288</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" t="s">
+        <v>552</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>549</v>
+      </c>
+      <c r="F277">
+        <v>44819289</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D267"/>
+  <autoFilter ref="A1:F273">
+    <sortState ref="A2:F273">
+      <sortCondition ref="F2:F273"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
